--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1414970.049307708</v>
+        <v>1404782.034999183</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668379.122709966</v>
+        <v>763237.3199885444</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10194101.58883607</v>
+        <v>10529055.53445055</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>311.4518164554846</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.11693918766147</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721419</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>130.494984023002</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>92.85724307047411</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425539</v>
+        <v>34.10833718734084</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>36.8060987717584</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.3526375930003</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.7387359001782</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>302.9749705765905</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>73.07471730978236</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>136.0712531169864</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>119.0647999338562</v>
       </c>
       <c r="G6" t="n">
-        <v>135.436608185925</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>93.81871806113259</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86783845749025</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.2838746549489</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>69.48247362142055</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>57.43814364968971</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.96814948561851</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6366459696483</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>105.4105461819292</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>106.9178383776766</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>72.71365351970363</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.42877567380779</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>137.903862626896</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>16.98703979721947</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>133.1827058773499</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>1.930223407097756</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8050167968196</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2532534423388</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>17.91195515694776</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.138199169715222</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.994152416892064</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.49529573452593</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>262.9129962942484</v>
       </c>
       <c r="F11" t="n">
-        <v>308.9203564757153</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>106.5867442799591</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>75.48297643885492</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>134.7256132196557</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>62.95376192076215</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
-        <v>28.93382893562068</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>161.2962522753665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>275.810444416939</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>332.442315526189</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>271.4965652044112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.132302579345049</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>115.9451354278033</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8518831495033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>176.5196562849278</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>214.8566572348583</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>74.96337793487972</v>
       </c>
     </row>
     <row r="41">
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W43" t="n">
-        <v>40.96105405076448</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1649.725331578667</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.127537179187</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.127537179187</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>949.3392845809428</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>538.3533797913352</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809315</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232722</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711875</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.148464578731</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135169</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.9606125456</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172451</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904657</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904657</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.325171642788</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="T2" t="n">
-        <v>2036.325171642788</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="U2" t="n">
-        <v>2036.325171642788</v>
+        <v>482.8222414097412</v>
       </c>
       <c r="V2" t="n">
-        <v>2036.325171642788</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="W2" t="n">
-        <v>2036.325171642788</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="X2" t="n">
-        <v>2036.325171642788</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="Y2" t="n">
-        <v>2036.325171642788</v>
+        <v>224.5974673148103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635.7541250642483</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>461.3010957831214</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>312.3666861218701</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>312.3666861218701</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3666861218701</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>175.490692336986</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>80.03532540581919</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809315</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562345</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504525</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104405</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789504</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>1166.885386873582</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>1458.244633128149</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>1672.75304868905</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>1766.22704733349</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>1734.238298972668</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>1595.273638474386</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="T3" t="n">
-        <v>1400.563316948362</v>
+        <v>336.2349471645401</v>
       </c>
       <c r="U3" t="n">
-        <v>1172.461727081626</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="V3" t="n">
-        <v>937.3096188498832</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W3" t="n">
-        <v>937.3096188498832</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X3" t="n">
-        <v>843.5144238292023</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y3" t="n">
-        <v>635.7541250642483</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809315</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981551</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018947</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>287.141159492734</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377471</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033672</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470406007</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>497.4664265514538</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="R4" t="n">
-        <v>388.3019303235361</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="S4" t="n">
-        <v>388.3019303235361</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="T4" t="n">
-        <v>388.3019303235361</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>388.3019303235361</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>351.1240527763054</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.70688273934479</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1939.26946180748</v>
+        <v>1254.274944645541</v>
       </c>
       <c r="C5" t="n">
-        <v>1939.26946180748</v>
+        <v>885.3124277051295</v>
       </c>
       <c r="D5" t="n">
-        <v>1581.00376320073</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E5" t="n">
-        <v>1195.215510602485</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F5" t="n">
-        <v>842.3340584883437</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G5" t="n">
-        <v>426.4363454578606</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>120.4010216431228</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>46.58817587566584</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>166.8180106410152</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>397.7498848307649</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>721.1430570142559</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>1112.649709705823</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1515.105157724376</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1881.797163747945</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2160.259306310712</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2321.200031938205</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2329.408793783292</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2329.408793783292</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2329.408793783292</v>
+        <v>2031.014116685475</v>
       </c>
       <c r="U5" t="n">
-        <v>2329.408793783292</v>
+        <v>2031.014116685475</v>
       </c>
       <c r="V5" t="n">
-        <v>2329.408793783292</v>
+        <v>2031.014116685475</v>
       </c>
       <c r="W5" t="n">
-        <v>2329.408793783292</v>
+        <v>2031.014116685475</v>
       </c>
       <c r="X5" t="n">
-        <v>2329.408793783292</v>
+        <v>2031.014116685475</v>
       </c>
       <c r="Y5" t="n">
-        <v>1939.26946180748</v>
+        <v>1640.874784709663</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5286022456529</v>
+        <v>915.2590547503667</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0755729645259</v>
+        <v>740.8060254692397</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1411633032747</v>
+        <v>591.8716158079884</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9037082978191</v>
+        <v>432.6341608025329</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3691503247041</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G6" t="n">
-        <v>175.5644955914465</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>80.79811371151459</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>46.58817587566584</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37839484809005</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>267.760112099255</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>540.4926516931446</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>878.1155296086495</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.082925390097</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1547.077776626526</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1774.937731806213</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1877.336881102156</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1849.777411753723</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1849.777411753723</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1849.777411753723</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U6" t="n">
-        <v>1849.777411753723</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.593094964409</v>
+        <v>1499.086190740921</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.355738236208</v>
+        <v>1499.086190740921</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.504238030675</v>
+        <v>1291.234690535389</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.743939265721</v>
+        <v>1083.474391770435</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>266.6288382816026</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="C7" t="n">
-        <v>266.6288382816026</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D7" t="n">
-        <v>266.6288382816026</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E7" t="n">
-        <v>118.7157446992095</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F7" t="n">
-        <v>60.697417780331</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G7" t="n">
-        <v>60.697417780331</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H7" t="n">
-        <v>60.697417780331</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I7" t="n">
-        <v>60.697417780331</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
-        <v>46.58817587566584</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>102.7461934286109</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>204.5149190698556</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>315.074054244483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>430.8618662024235</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>517.4975624283949</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>572.5673961942438</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>554.7526022855081</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X7" t="n">
-        <v>448.2773031118423</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y7" t="n">
-        <v>448.2773031118423</v>
+        <v>412.2915304974914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>873.3130596687533</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>504.3505427283416</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>146.0848441215911</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>72.63670925320361</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>65.69120850400013</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>200.4212373122964</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>470.386933615762</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>842.2050137379749</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1287.593706992222</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1744.803063321698</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2163.197632325228</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2485.786716210322</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2679.864937059321</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2707.349532583451</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2707.349532583451</v>
       </c>
       <c r="T8" t="n">
-        <v>3076.018322200008</v>
+        <v>2707.349532583451</v>
       </c>
       <c r="U8" t="n">
-        <v>3076.018322200008</v>
+        <v>2707.349532583451</v>
       </c>
       <c r="V8" t="n">
-        <v>2744.955434856437</v>
+        <v>2376.286645239881</v>
       </c>
       <c r="W8" t="n">
-        <v>2392.186779586323</v>
+        <v>2023.517989969767</v>
       </c>
       <c r="X8" t="n">
-        <v>2392.186779586323</v>
+        <v>1650.052231708687</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1259.912899732875</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>683.3064425726178</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>508.8534132914908</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>359.9190036302396</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>200.6815486247841</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>122.4490829268374</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>317.3430623472206</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>625.7246102439907</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1004.948199393864</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1408.617353449275</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1755.675971040745</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2014.88804264283</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2138.245251481184</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2121.086625423387</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1986.55863968869</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1984.60891907546</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1756.523043523117</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1521.370935291374</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1267.133578563172</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1059.28207835764</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>851.5217795926858</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>539.1554941249036</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>391.2424005425105</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>244.3524530446001</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>76.41987380991446</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>76.41987380991446</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>58.32698981299754</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>54.14699065166903</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>126.2970999349563</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>248.5301971065623</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>380.6661427433409</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>517.5177168371852</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>623.6092066643586</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>695.3268329482414</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="V10" t="n">
-        <v>777.020896318616</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="W10" t="n">
-        <v>777.020896318616</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="X10" t="n">
-        <v>777.020896318616</v>
+        <v>689.2721335372394</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.020896318616</v>
+        <v>689.2721335372394</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.569348694474</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.606831754062</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D11" t="n">
-        <v>764.3411331473119</v>
+        <v>1040.650304738527</v>
       </c>
       <c r="E11" t="n">
-        <v>378.5528805490677</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265602</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995487</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758596</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>772.5608581015648</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>772.5608581015648</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>772.5608581015648</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1548.393281286113</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1179.430764345701</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D14" t="n">
-        <v>821.1650657389509</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389509</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>3249.360390862853</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>2995.82991413669</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>2664.767026793119</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>2311.998371523005</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>1938.532613261925</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>1548.393281286113</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>914.0526986331905</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>1003.927782850876</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>834.9915999229696</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>684.8749605106339</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1863.704889582672</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="V16" t="n">
-        <v>1609.020401376785</v>
+        <v>1702.982968616094</v>
       </c>
       <c r="W16" t="n">
-        <v>1319.603231339825</v>
+        <v>1413.565798579134</v>
       </c>
       <c r="X16" t="n">
-        <v>1091.613680441807</v>
+        <v>1185.576247681116</v>
       </c>
       <c r="Y16" t="n">
-        <v>1091.613680441807</v>
+        <v>1185.576247681116</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1238.038871968309</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>869.0763550278978</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>510.8106564211473</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>510.8106564211473</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>510.8106564211473</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>95.73820626614372</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>95.73820626614372</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883008</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539437</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269323</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008243</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.638712032431</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>383.3613929424835</v>
+        <v>1011.465710957051</v>
       </c>
       <c r="C19" t="n">
-        <v>214.4252100145765</v>
+        <v>842.5295280291444</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>692.4128886168087</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>544.4997950344156</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>397.6098475365052</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1337.101066913588</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1082.416578707701</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>792.9994086707405</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="X19" t="n">
-        <v>565.0098577727232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.0098577727232</v>
+        <v>1193.114175787291</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548.393281286113</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1179.430764345701</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>821.1650657389509</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>821.1650657389509</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V20" t="n">
-        <v>3051.366866857241</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W20" t="n">
-        <v>2698.598211587127</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X20" t="n">
-        <v>2325.132453326047</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.993121350235</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.0249360836216</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C22" t="n">
-        <v>142.0249360836216</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D22" t="n">
-        <v>142.0249360836216</v>
+        <v>242.8655127233293</v>
       </c>
       <c r="E22" t="n">
-        <v>142.0249360836216</v>
+        <v>242.8655127233293</v>
       </c>
       <c r="F22" t="n">
-        <v>142.0249360836216</v>
+        <v>95.97556522541896</v>
       </c>
       <c r="G22" t="n">
-        <v>142.0249360836216</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0249360836216</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271517</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.0249360836216</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.71655096576</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>2357.803457383367</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X31" t="n">
-        <v>3677.571434467152</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="32">
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3749.169289443757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3300.38715940221</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673039</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>3890.88112060156</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>3662.891569703542</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>119.0173737780134</v>
       </c>
       <c r="F11" t="n">
-        <v>97.95568926599611</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>179.9362540566319</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>128.4349937007652</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>11.70834942691351</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>223.2580762848507</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>12.64310083730527</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>4.245800601800454</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>10.40139378867383</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>50.29152613729161</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>56.25569326572366</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>162.4097502978219</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>21.5947289549143</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.48882721876583</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.73277020259147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.0033420516632</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>3.727996117236444</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
     </row>
     <row r="41">
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W43" t="n">
-        <v>245.5619442858265</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781272.1838798551</v>
+        <v>781272.1838798549</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781272.1838798551</v>
+        <v>917043.4542880681</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781272.183879855</v>
+        <v>917043.4542880682</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781272.1838798551</v>
+        <v>917043.4542880682</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651772</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136507</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="G2" t="n">
-        <v>426246.3737136507</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="H2" t="n">
-        <v>426246.3737136506</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230095</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>42898.85063327591</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>251412.3002812253</v>
+        <v>136000.7074085145</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>147481.6015574853</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>306241.8686975057</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>300174.5225695033</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376605</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>10355.77842690511</v>
+        <v>91259.95686487769</v>
       </c>
       <c r="L3" t="n">
-        <v>63032.12549236992</v>
+        <v>34097.0336249882</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>38517.98506259135</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>80518.24125636043</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174202.9900888973</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>162990.2879197626</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>136660.5945769996</v>
       </c>
       <c r="E4" t="n">
         <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
-        <v>14649.95482218994</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="G4" t="n">
-        <v>14649.95482218994</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="H4" t="n">
-        <v>14649.95482218994</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.08185587233</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>88361.30342301323</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>95786.8394703259</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750572.8510096873</v>
+        <v>-413728.161601412</v>
       </c>
       <c r="C6" t="n">
-        <v>218900.6641891249</v>
+        <v>-138761.2100657701</v>
       </c>
       <c r="D6" t="n">
-        <v>60208.12121850584</v>
+        <v>144702.964709337</v>
       </c>
       <c r="E6" t="n">
-        <v>337290.0783300675</v>
+        <v>186332.2874745211</v>
       </c>
       <c r="F6" t="n">
-        <v>337290.0783300675</v>
+        <v>80011.64668612683</v>
       </c>
       <c r="G6" t="n">
-        <v>337290.0783300675</v>
+        <v>386253.5153836326</v>
       </c>
       <c r="H6" t="n">
-        <v>337290.0783300673</v>
+        <v>386253.5153836325</v>
       </c>
       <c r="I6" t="n">
-        <v>88342.87637097588</v>
+        <v>377351.1062286735</v>
       </c>
       <c r="J6" t="n">
-        <v>246676.2732028188</v>
+        <v>339105.0749575776</v>
       </c>
       <c r="K6" t="n">
-        <v>378161.6205135741</v>
+        <v>296910.0628212445</v>
       </c>
       <c r="L6" t="n">
-        <v>325485.2734481092</v>
+        <v>354072.986061134</v>
       </c>
       <c r="M6" t="n">
-        <v>388517.3989404792</v>
+        <v>349652.0346235309</v>
       </c>
       <c r="N6" t="n">
-        <v>388517.3989404793</v>
+        <v>307651.7784297617</v>
       </c>
       <c r="O6" t="n">
-        <v>388517.3989404792</v>
+        <v>388170.0196861224</v>
       </c>
       <c r="P6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861221</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376851</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>886.5454017205136</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>963.6480080301576</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261643</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>582.352198445823</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>676.8373831458629</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376851</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>32.83473718282846</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>203.2312988727847</v>
+        <v>109.9373434924735</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>126.1286925631407</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>278.1987997483754</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261643</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>40.23724171965867</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>249.0492569564699</v>
+        <v>134.7224264196996</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.5640722564299</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>328.7438349237137</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>341.3068326973555</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261643</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>40.23724171965867</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>249.0492569564699</v>
+        <v>134.7224264196996</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>154.5640722564299</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>328.7438349237137</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261643</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>40.23724171965867</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>249.0492569564699</v>
+        <v>134.7224264196996</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>154.5640722564299</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>328.7438349237137</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>53.82107531552293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696038</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.6353192824735</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>95.36878438708888</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>112.9157421330034</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.57770336425638</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>215.3315445520696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.5234081487111</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>127.8053827854164</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>207.4944324946578</v>
+        <v>72.00100475261749</v>
       </c>
       <c r="U5" t="n">
-        <v>251.06053277864</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.0044124595277</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>136.2631732143437</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.478547334622</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8159275429955</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>163.3181135280047</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>87.98290437324154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3922909291267</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>148.0133790175599</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>107.3735537978901</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>196.155818773067</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>221.1148297756808</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2318281694364</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>111.6668149744182</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>309.2167165525582</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8005904082743</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>61.12497568263643</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.7421641270002</v>
       </c>
       <c r="T8" t="n">
-        <v>66.01410751272411</v>
+        <v>206.1375816037213</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0357359605303</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.2707648440514</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.21702052251149</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>28.15788129210624</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>189.8798588784813</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.7772093623003</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>85.28036222008492</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.15891518508494</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7327745714999</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5207605139508</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2242443065207</v>
       </c>
       <c r="V10" t="n">
-        <v>198.6423475893021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508279</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958417</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933231</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409261</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258717</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840433</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934787</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839016</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>578.253840119091</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662303</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.61767849284</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141322</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699499</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>15.0235916945275</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464135</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095122</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076064</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913581</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616803</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730384</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152849</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>436.898513388451</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475636</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349509</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867498</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053863</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057852</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526973</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619437</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017481</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>108.841112100157</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368738</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420142</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595399</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099895</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451905</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153097</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735642</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978883</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.564001614956836</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>36.4998315391767</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>137.4011722606236</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>302.490182067443</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>453.354370428566</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>562.4261848523014</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>625.80749857229</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>635.9337181607862</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>600.4941771020591</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>512.5078872328121</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>384.8720793971703</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>223.8772164455326</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>81.21468680082899</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>15.60141706947356</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2851201291965468</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.906908977285633</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>18.41672617536388</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>65.65454154250975</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>180.1610801741659</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>307.9239816523033</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>414.0417935110758</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>483.1672439376799</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>495.9552431757051</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>453.7021547842708</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1359783029031</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>243.415258223338</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>118.395629309015</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>35.41999788949408</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.686181360199544</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.125454537979318</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.598688429332074</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.21379348987972</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>48.07692112936819</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>113.0272719537776</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>185.7385284260354</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6813688481521</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>250.6016780633904</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>244.6429302813347</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>225.9673427205008</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>193.3540987621263</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.8683556597975</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>71.88284519524031</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>27.86077926390531</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.830759652600676</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08720118705447684</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.873961841327264</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>39.67421170749285</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>149.3509138877695</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>328.7976688303502</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>492.7824735737333</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>611.3402332752527</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>680.2338021709564</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>691.2406962526276</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>652.7189881929295</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>557.0805552351626</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>418.3442967926298</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>243.3477555152739</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>88.27790545924512</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9582679604101</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.309916947306181</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.072752319159207</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>20.01842371398498</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>71.36449870789376</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>195.8296390658267</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>334.7040444494936</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>450.0508928069147</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>525.1881643764358</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>539.0883323413237</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>493.1605046378486</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>395.8047827699718</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>264.5850153368841</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>128.6924641667445</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>38.50046522648788</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.354646409242591</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.136365284155211</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.737725916119956</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>15.44996314513926</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>52.2581575502256</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>122.8572222696809</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>201.8921564364821</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>258.3524512020524</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>272.3964361059673</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>265.9194576913386</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>245.6196594893917</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>210.1700508005444</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>145.5108492125538</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>78.13447619208455</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>30.28382346547232</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.424828914330719</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09478504997017953</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>571.4938338238242</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142398</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808911</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140561</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>372.283405866206</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873107</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974043</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109608</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183905</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409397</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169991</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818061</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>323.13827825102</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319515</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440066</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332334</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892935</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850744</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563556</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806458</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>107.896613176781</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769708</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084184</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>121.4442775407567</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>233.2645193835854</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>326.6597698823142</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>395.4612653450173</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>406.5206545641952</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>370.3959656803723</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>281.2748914775426</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.5663895227208</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>8.29167863140043</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>53.32345350749921</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>170.0825426779443</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>275.4874137312016</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>341.0332100156616</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>364.6135310923718</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>311.1059103398263</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>230.1615708885728</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.4334841373165</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.72527025550002</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>102.7966925669139</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>111.6758941157853</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>116.9573858161015</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>87.51080426865801</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>55.62609471297873</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>147.7517643036639</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>272.6926225287528</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>375.5738183052654</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>449.8875689436837</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>461.8276326560367</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>422.6207767712427</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>325.8475594798931</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>196.0386069181804</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>27.76221770114182</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>68.99201239915999</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>196.8626054751346</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>311.4965130270405</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>383.0541304544175</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>407.7466202579905</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>350.5642601934042</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>261.8303753556415</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>124.6032412508625</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>72.87889826594676</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>123.4677749208141</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>133.4706521583622</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>138.2339132261054</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>107.1631210375489</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>72.44204675139682</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>428.8975893793797</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404782.034999183</v>
+        <v>1411801.901186399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763237.3199885444</v>
+        <v>1668379.122709967</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10529055.53445055</v>
+        <v>10194101.58883607</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>306.3590947744003</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.11693918766147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.27697994470975</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>130.494984023002</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>180.295938327982</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>11.73873590017823</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>136.0712531169864</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>356.7574849592101</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>119.0647999338562</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>127.0889258314801</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>48.64414897240624</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>13.96814948561898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>17.63664596964884</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.9178383776766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>72.71365351970363</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.42877567380779</v>
+        <v>179.0944876018801</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.98703979721947</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>133.1827058773499</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
-        <v>1.930223407097756</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8050167968196</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2532534423388</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.91195515694776</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.138199169715222</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.994152416892064</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>262.9129962942484</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>386.1044687222092</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274476</v>
+        <v>98.12640288586394</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>188.2196394312116</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672525</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>120.4528780263472</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>134.7256132196557</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>63.28370704506165</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>200.6173698503548</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>161.2962522753665</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>7.601081015447603</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.442315526189</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>230.1984816395455</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.132302579345049</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>90.15542043263989</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>115.9451354278033</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.8566572348583</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.96337793487972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>1.839588425939337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832529</v>
+        <v>768.8538729199388</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832529</v>
+        <v>768.8538729199388</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>768.8538729199388</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>768.8538729199388</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262262</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262262</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097412</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312953</v>
+        <v>1495.088286451133</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312953</v>
+        <v>1142.319631181019</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148103</v>
+        <v>768.8538729199388</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148103</v>
+        <v>768.8538729199388</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330561</v>
+        <v>693.0104463829912</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330561</v>
+        <v>518.5574171018642</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330561</v>
+        <v>369.6230074406129</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330561</v>
+        <v>210.3855524351574</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810251</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T3" t="n">
-        <v>336.2349471645401</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U3" t="n">
-        <v>204.4218319897906</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V3" t="n">
-        <v>15.00204697330561</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330561</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330561</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330561</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>338.1722376183966</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.274944645541</v>
+        <v>1582.447857800758</v>
       </c>
       <c r="C5" t="n">
-        <v>885.3124277051295</v>
+        <v>1213.485340860347</v>
       </c>
       <c r="D5" t="n">
-        <v>527.0467290983789</v>
+        <v>855.2196422535962</v>
       </c>
       <c r="E5" t="n">
-        <v>141.2584765001347</v>
+        <v>469.4313896553521</v>
       </c>
       <c r="F5" t="n">
-        <v>134.3129757509312</v>
+        <v>58.4454848657445</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>166.8180106410141</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>397.7498848307619</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>721.1430570142509</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1112.649709705815</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1515.105157724366</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1881.797163747932</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2160.259306310697</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2321.200031938189</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="T5" t="n">
-        <v>2031.014116685475</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="U5" t="n">
-        <v>2031.014116685475</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="V5" t="n">
-        <v>2031.014116685475</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="W5" t="n">
-        <v>2031.014116685475</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="X5" t="n">
-        <v>2031.014116685475</v>
+        <v>2329.408793783274</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.874784709663</v>
+        <v>1969.04769786488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915.2590547503667</v>
+        <v>675.7476277966143</v>
       </c>
       <c r="C6" t="n">
-        <v>740.8060254692397</v>
+        <v>501.2945985154873</v>
       </c>
       <c r="D6" t="n">
-        <v>591.8716158079884</v>
+        <v>352.360188854236</v>
       </c>
       <c r="E6" t="n">
-        <v>432.6341608025329</v>
+        <v>193.1227338487805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>99.37839484808897</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>267.7601120992526</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>540.4926516931405</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>878.1155296086434</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1239.082925390089</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1547.077776626516</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1774.937731806201</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1877.336881102144</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1877.336881102144</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1748.964228747113</v>
       </c>
       <c r="T6" t="n">
-        <v>1734.238298972664</v>
+        <v>1748.964228747113</v>
       </c>
       <c r="U6" t="n">
-        <v>1734.238298972664</v>
+        <v>1748.964228747113</v>
       </c>
       <c r="V6" t="n">
-        <v>1499.086190740921</v>
+        <v>1513.812120515371</v>
       </c>
       <c r="W6" t="n">
-        <v>1499.086190740921</v>
+        <v>1259.574763787169</v>
       </c>
       <c r="X6" t="n">
-        <v>1291.234690535389</v>
+        <v>1051.723263581636</v>
       </c>
       <c r="Y6" t="n">
-        <v>1083.474391770435</v>
+        <v>843.9629648166824</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.6430656672517</v>
+        <v>505.6170982729703</v>
       </c>
       <c r="C7" t="n">
-        <v>61.70688273934482</v>
+        <v>505.6170982729703</v>
       </c>
       <c r="D7" t="n">
-        <v>61.70688273934482</v>
+        <v>355.5004588606346</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934482</v>
+        <v>207.5873652782415</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934482</v>
+        <v>60.69741778033112</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>60.69741778033112</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>60.69741778033112</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>60.69741778033112</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566548</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>102.7461934286098</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>204.5149190698535</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>315.07405424448</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>430.8618662024194</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>517.49756242839</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>572.5673961942381</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470405991</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="Y7" t="n">
-        <v>412.2915304974914</v>
+        <v>554.7526022855019</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>873.3130596687533</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C8" t="n">
-        <v>504.3505427283416</v>
+        <v>1402.455495256968</v>
       </c>
       <c r="D8" t="n">
-        <v>146.0848441215911</v>
+        <v>1044.189796650217</v>
       </c>
       <c r="E8" t="n">
-        <v>72.63670925320361</v>
+        <v>658.4015440519729</v>
       </c>
       <c r="F8" t="n">
-        <v>65.69120850400013</v>
+        <v>247.4156392623653</v>
       </c>
       <c r="G8" t="n">
-        <v>54.14699065166903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>54.14699065166903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>54.14699065166903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>200.4212373122964</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>470.386933615762</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>842.2050137379749</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1287.593706992222</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>1744.803063321698</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2163.197632325228</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.786716210322</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>2679.864937059321</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>2707.349532583451</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>2707.349532583451</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.349532583451</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2707.349532583451</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2376.286645239881</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.517989969767</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1650.052231708687</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1259.912899732875</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>683.3064425726178</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>508.8534132914908</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>359.9190036302396</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>200.6815486247841</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>54.14699065166903</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>54.14699065166903</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>54.14699065166903</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>54.14699065166903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>122.4490829268374</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>317.3430623472206</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>625.7246102439907</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.948199393864</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1408.617353449275</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.675971040745</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2014.88804264283</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.245251481184</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2121.086625423387</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>1986.55863968869</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>1984.60891907546</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>1756.523043523117</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1521.370935291374</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1267.133578563172</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1059.28207835764</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>851.5217795926858</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.2721335372394</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>689.2721335372394</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>539.1554941249036</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>391.2424005425105</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>244.3524530446001</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>76.41987380991446</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>76.41987380991446</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>58.32698981299754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>54.14699065166903</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>126.2970999349563</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>248.5301971065623</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>380.6661427433409</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>517.5177168371852</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>623.6092066643586</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>695.3268329482414</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.2721335372394</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767.878520285689</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.916003345278</v>
+        <v>1498.154181889228</v>
       </c>
       <c r="D11" t="n">
-        <v>1040.650304738527</v>
+        <v>1139.888483282478</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>754.1002306842336</v>
       </c>
       <c r="F11" t="n">
         <v>364.0957168234162</v>
@@ -5041,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5074,19 +5074,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.483610522581</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.017852261501</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y11" t="n">
-        <v>1767.878520285689</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5141,31 +5141,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
         <v>66.51211643218342</v>
@@ -5202,16 +5202,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1751.913851851648</v>
+        <v>1828.176969415903</v>
       </c>
       <c r="T13" t="n">
-        <v>1530.147236421175</v>
+        <v>1828.176969415903</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1539.074102541547</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>1284.38961433566</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>994.9724442986994</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614632</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200302</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364367</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331905</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1003.927782850876</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>834.9915999229696</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>684.8749605106339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109817</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.667456821981</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.982968616094</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.565798579134</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.576247681116</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y16" t="n">
-        <v>1185.576247681116</v>
+        <v>969.7403902419976</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>841.937882512877</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874796</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412852</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385036</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.8149980365</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.465710957051</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>842.5295280291444</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>692.4128886168087</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>544.4997950344156</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>397.6098475365052</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107599</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821981</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930821</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.906754930821</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X19" t="n">
-        <v>1413.906754930821</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y19" t="n">
-        <v>1193.114175787291</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>841.937882512877</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018653</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.46222495769</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874796</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412852</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385036</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2275.8149980365</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.9183350635719</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C22" t="n">
-        <v>392.982152135665</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D22" t="n">
-        <v>242.8655127233293</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>242.8655127233293</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>95.97556522541896</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178207</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.76609997232</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.348929935359</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373418</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5667998938117</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6129,19 +6129,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6363,16 +6363,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.7836617409695</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>816.8474788130626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>666.7308394007268</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.2677182139842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>658.9255961109956</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>840.5740609412353</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>119.0173737780134</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20.77157701950227</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696594</v>
+        <v>91.64262244557796</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>222.7020862222419</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729178</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>59.37910215559013</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.70834942691351</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>319.4501346184189</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>50.29152613729153</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>4.245800601800454</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>182.1679443159943</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29152613729161</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>139.5326190389235</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>162.4097502978219</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>128.4292329194549</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>30.48882721876583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.727996117236444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781272.1838798549</v>
+        <v>781272.183879855</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917043.4542880681</v>
+        <v>781272.183879855</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917043.4542880682</v>
+        <v>781272.1838798549</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917043.4542880682</v>
+        <v>781272.1838798551</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="F2" t="n">
         <v>426246.3737136506</v>
       </c>
-      <c r="F2" t="n">
-        <v>501674.8572737693</v>
-      </c>
       <c r="G2" t="n">
-        <v>501674.8572737693</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="H2" t="n">
-        <v>501674.8572737692</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>1004321.885230095</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>42898.85063327114</v>
       </c>
       <c r="D3" t="n">
-        <v>136000.7074085145</v>
+        <v>251412.3002812297</v>
       </c>
       <c r="E3" t="n">
-        <v>147481.6015574853</v>
+        <v>1.82672692972119e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975057</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744865</v>
+        <v>300174.5225695032</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>141841.1257376605</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487769</v>
+        <v>10355.77842690395</v>
       </c>
       <c r="L3" t="n">
-        <v>34097.0336249882</v>
+        <v>63032.12549237102</v>
       </c>
       <c r="M3" t="n">
-        <v>38517.98506259135</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>162990.2879197638</v>
       </c>
       <c r="D4" t="n">
-        <v>136660.5945769996</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
-        <v>14820.16342064201</v>
+        <v>14649.95482218994</v>
       </c>
       <c r="G4" t="n">
-        <v>14820.16342064201</v>
+        <v>14649.95482218994</v>
       </c>
       <c r="H4" t="n">
-        <v>14820.16342064201</v>
+        <v>14649.95482218994</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>88361.30342301288</v>
       </c>
       <c r="D5" t="n">
-        <v>95786.8394703259</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
-        <v>100142.1285138384</v>
-      </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413728.161601412</v>
+        <v>-750572.8510096873</v>
       </c>
       <c r="C6" t="n">
-        <v>-138761.2100657701</v>
+        <v>218900.6641891289</v>
       </c>
       <c r="D6" t="n">
-        <v>144702.964709337</v>
+        <v>60208.12121850136</v>
       </c>
       <c r="E6" t="n">
-        <v>186332.2874745211</v>
+        <v>336942.4594002612</v>
       </c>
       <c r="F6" t="n">
-        <v>80011.64668612683</v>
+        <v>336942.4594002615</v>
       </c>
       <c r="G6" t="n">
-        <v>386253.5153836326</v>
+        <v>336942.4594002615</v>
       </c>
       <c r="H6" t="n">
-        <v>386253.5153836325</v>
+        <v>336942.4594002612</v>
       </c>
       <c r="I6" t="n">
-        <v>377351.1062286735</v>
+        <v>88308.13844554036</v>
       </c>
       <c r="J6" t="n">
-        <v>339105.0749575776</v>
+        <v>246641.5352773829</v>
       </c>
       <c r="K6" t="n">
-        <v>296910.0628212445</v>
+        <v>378126.8825881395</v>
       </c>
       <c r="L6" t="n">
-        <v>354072.986061134</v>
+        <v>325450.5355226724</v>
       </c>
       <c r="M6" t="n">
-        <v>349652.0346235309</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="N6" t="n">
-        <v>307651.7784297617</v>
+        <v>388482.6610150436</v>
       </c>
       <c r="O6" t="n">
-        <v>388170.0196861224</v>
+        <v>388482.6610150433</v>
       </c>
       <c r="P6" t="n">
-        <v>388170.0196861221</v>
+        <v>388482.6610150434</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>886.54540172051</v>
       </c>
       <c r="D3" t="n">
-        <v>963.6480080301576</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
-      <c r="F3" t="n">
-        <v>1358.041048716386</v>
-      </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>582.3521984458185</v>
       </c>
       <c r="D4" t="n">
-        <v>676.8373831458629</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>32.83473718282482</v>
       </c>
       <c r="D3" t="n">
-        <v>109.9373434924735</v>
+        <v>203.2312988727883</v>
       </c>
       <c r="E3" t="n">
-        <v>126.1286925631407</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230873</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>40.23724171965417</v>
       </c>
       <c r="D4" t="n">
-        <v>134.7224264196996</v>
+        <v>249.0492569564742</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5640722564299</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237137</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>40.23724171965417</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264196996</v>
+        <v>249.0492569564742</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564299</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237137</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>40.23724171965417</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264196996</v>
+        <v>249.0492569564742</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564299</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237137</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>100.5169509673111</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871021</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V2" t="n">
-        <v>259.6353192824735</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121489</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>16.02248763433903</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T3" t="n">
-        <v>7.8840106256811</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U3" t="n">
-        <v>95.36878438708888</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310515</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,25 +27545,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425638</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>105.9391194877347</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>302.9749705765906</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>73.07471730978293</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>127.8053827854167</v>
       </c>
       <c r="T5" t="n">
-        <v>72.00100475261749</v>
+        <v>207.4944324946579</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.06053277864</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>29.48045369684348</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>26.0044124595277</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.436608185925</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>93.81871806113266</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.86783845749052</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>27.28387465494939</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>9.174247382863825</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>192.4785473346221</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8159275429955</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>131.1878312095311</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.3922909291267</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>148.0133790175599</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>107.3735537978903</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>105.4105461819295</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>196.1558187730671</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>221.1148297756808</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2318281694364</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>111.6668149744182</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>309.2167165525582</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>231.8272380515733</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8005904082743</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>61.12497568263643</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.7421641270002</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1375816037213</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0357359605303</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.2707648440514</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.21702052251149</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.15788129210624</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>189.8798588784813</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7772093623003</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>85.28036222008492</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15891518508494</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7327745714999</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5207605139508</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2242443065207</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.564001614956821</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>36.49983153917655</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>137.401172260623</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>302.4901820674418</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>453.3543704285641</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>562.4261848522991</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>625.8074985722874</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>635.9337181607835</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>600.4941771020566</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>512.5078872328099</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>384.8720793971687</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>223.8772164455316</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>81.21468680082864</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>15.60141706947349</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2851201291965457</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.906908977285625</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>18.41672617536381</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>65.65454154250948</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>180.1610801741652</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>307.9239816523021</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>414.041793511074</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>483.1672439376779</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>495.9552431757031</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>453.7021547842689</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>364.1359783029016</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>243.415258223337</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>118.3956293090146</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>35.41999788949393</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.686181360199513</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1254545379793175</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.598688429332067</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>14.21379348987966</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>48.076921129368</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>113.0272719537771</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>185.7385284260347</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>237.6813688481512</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>250.6016780633893</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>244.6429302813337</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>225.9673427204999</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>193.3540987621255</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>133.868355659797</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>71.88284519524001</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>27.86077926390519</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.830759652600648</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08720118705447648</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.873961841327264</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>39.67421170749285</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>149.3509138877695</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>328.7976688303502</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7824735737333</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>611.3402332752527</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>680.2338021709564</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>691.2406962526276</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>652.7189881929295</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>557.0805552351626</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>418.3442967926298</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>243.3477555152739</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>88.27790545924512</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>16.9582679604101</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.309916947306181</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.072752319159207</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>20.01842371398498</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>71.36449870789376</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>195.8296390658267</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>334.7040444494936</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>450.0508928069147</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>525.1881643764358</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>539.0883323413237</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>493.1605046378486</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>395.8047827699718</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.5850153368841</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>128.6924641667445</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>38.50046522648788</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>8.354646409242591</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.136365284155211</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.737725916119956</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>15.44996314513926</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>52.2581575502256</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>122.8572222696809</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>201.8921564364821</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>258.3524512020524</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>272.3964361059673</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>265.9194576913386</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>245.6196594893917</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>210.1700508005444</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.5108492125538</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>78.13447619208455</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>30.28382346547232</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>7.424828914330719</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09478504997017953</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169088</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>121.4442775407555</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>233.2645193835835</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>326.6597698823119</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>395.4612653450147</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>406.5206545641926</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>370.3959656803698</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>281.2748914775404</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>162.5663895227192</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>8.291678631399492</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>53.32345350749847</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>170.0825426779431</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>275.4874137311999</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>341.0332100156596</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>364.6135310923697</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>311.1059103398244</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>230.1615708885714</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>103.4334841373155</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>56.72527025549928</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>102.7966925669129</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>111.6758941157843</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>116.9573858161005</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>87.5108042686571</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>55.62609471297793</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.7517643036639</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>272.6926225287528</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>375.5738183052654</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>449.8875689436837</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>461.8276326560367</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>422.6207767712427</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>325.8475594798931</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.0386069181804</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>27.76221770114182</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.99201239915999</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>196.8626054751346</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>311.4965130270405</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>383.0541304544175</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>407.7466202579905</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>350.5642601934042</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>261.8303753556415</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.6032412508625</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>72.87889826594676</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4677749208141</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4706521583622</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2339132261054</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>107.1631210375489</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>72.44204675139682</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>279.7582138724644</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
